--- a/testData/result/1.xlsx
+++ b/testData/result/1.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
@@ -518,18 +518,33 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>ddd ddd rrr</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>ss_23234234</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="2" t="n">
         <v>66</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>f f f</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ds_22</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
